--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -314,9 +314,6 @@
     <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campo JWT non valido</t>
   </si>
   <si>
@@ -462,17 +462,11 @@
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
-    <t xml:space="preserve">Il valore del CF viene salvato nella base dati effettuando un UPPERCASE</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il campo è reso obligatorio nella procedura di inserimento del paziente</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
@@ -3494,28 +3488,18 @@
         <v>52</v>
       </c>
       <c r="L10" s="38"/>
-      <c r="M10" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>51</v>
-      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="1">
@@ -3526,10 +3510,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>50</v>
@@ -3545,28 +3529,18 @@
         <v>52</v>
       </c>
       <c r="L11" s="38"/>
-      <c r="M11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="38"/>
-      <c r="P11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="1">
@@ -3580,45 +3554,45 @@
         <v>48</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="36">
         <v>45853</v>
       </c>
       <c r="G12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="I12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="J12" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O12" s="38" t="s">
         <v>62</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="38" t="s">
         <v>51</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S12" s="38" t="s">
         <v>63</v>
@@ -3627,7 +3601,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="1">
@@ -3638,13 +3612,13 @@
         <v>47</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="36">
         <v>45853</v>
@@ -3656,30 +3630,30 @@
         <v>66</v>
       </c>
       <c r="I13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O13" s="38" t="s">
         <v>62</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="38" t="s">
         <v>51</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S13" s="38" t="s">
         <v>63</v>
@@ -3688,7 +3662,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="11" hidden="1" customHeight="1">
@@ -3723,11 +3697,11 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" ht="11" hidden="1" customHeight="1">
@@ -3762,11 +3736,11 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="11" hidden="1" customHeight="1">
@@ -3801,11 +3775,11 @@
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="11" hidden="1" customHeight="1">
@@ -3829,15 +3803,15 @@
       <c r="H17" s="36"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O17" s="38" t="s">
         <v>75</v>
@@ -3849,18 +3823,18 @@
         <v>51</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="11" hidden="1" customHeight="1">
@@ -3871,7 +3845,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>77</v>
@@ -3884,15 +3858,15 @@
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>75</v>
@@ -3904,18 +3878,18 @@
         <v>51</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S18" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="11" hidden="1" customHeight="1">
@@ -3950,11 +3924,11 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="11" hidden="1" customHeight="1">
@@ -3989,11 +3963,11 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="11" hidden="1" customHeight="1">
@@ -4028,11 +4002,11 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
       <c r="U21" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="1">
@@ -4061,9 +4035,7 @@
       <c r="K22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>87</v>
-      </c>
+      <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
@@ -4075,7 +4047,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="1">
@@ -4089,10 +4061,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>89</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -4104,9 +4076,7 @@
       <c r="K23" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
@@ -4118,7 +4088,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="1">
@@ -4132,10 +4102,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -4147,9 +4117,7 @@
       <c r="K24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
@@ -4161,7 +4129,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="1">
@@ -4175,10 +4143,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -4190,9 +4158,7 @@
       <c r="K25" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
@@ -4204,7 +4170,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="1">
@@ -4218,10 +4184,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -4231,7 +4197,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -4245,7 +4211,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="1">
@@ -4259,36 +4225,36 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="36">
         <v>45853</v>
       </c>
       <c r="G27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="J27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>51</v>
@@ -4297,16 +4263,16 @@
         <v>51</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="1">
@@ -4320,36 +4286,36 @@
         <v>48</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="36">
         <v>45853</v>
       </c>
       <c r="G28" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="J28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>51</v>
@@ -4358,16 +4324,16 @@
         <v>51</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="1">
@@ -4381,36 +4347,36 @@
         <v>48</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="36">
         <v>45853</v>
       </c>
       <c r="G29" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="J29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>51</v>
@@ -4419,16 +4385,16 @@
         <v>51</v>
       </c>
       <c r="R29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="1">
@@ -4442,10 +4408,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4455,7 +4421,7 @@
         <v>51</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -4469,7 +4435,7 @@
       <c r="U30" s="39"/>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="1">
@@ -4483,10 +4449,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4496,7 +4462,7 @@
         <v>51</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
@@ -4510,7 +4476,7 @@
       <c r="U31" s="39"/>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="1">
@@ -4524,10 +4490,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4537,7 +4503,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
@@ -4551,7 +4517,7 @@
       <c r="U32" s="39"/>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="1">
@@ -4565,10 +4531,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4578,7 +4544,7 @@
         <v>51</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
@@ -4592,7 +4558,7 @@
       <c r="U33" s="39"/>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="1">
@@ -4606,10 +4572,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4619,7 +4585,7 @@
         <v>51</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
@@ -4633,7 +4599,7 @@
       <c r="U34" s="39"/>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="1">
@@ -4647,10 +4613,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4660,7 +4626,7 @@
         <v>51</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
@@ -4674,7 +4640,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="1">
@@ -4688,10 +4654,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4701,7 +4667,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -4715,7 +4681,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="1">
@@ -4729,10 +4695,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4742,7 +4708,7 @@
         <v>51</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
@@ -4756,7 +4722,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4767,13 +4733,13 @@
         <v>47</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4785,9 +4751,7 @@
       <c r="K38" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="38" t="s">
-        <v>87</v>
-      </c>
+      <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
       <c r="O38" s="38"/>
@@ -4799,7 +4763,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4810,13 +4774,13 @@
         <v>47</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4828,9 +4792,7 @@
       <c r="K39" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L39" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="38"/>
@@ -4842,7 +4804,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4853,13 +4815,13 @@
         <v>47</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4871,9 +4833,7 @@
       <c r="K40" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L40" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
       <c r="O40" s="38"/>
@@ -4885,7 +4845,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4896,13 +4856,13 @@
         <v>47</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4914,9 +4874,7 @@
       <c r="K41" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38"/>
@@ -4928,7 +4886,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4939,39 +4897,39 @@
         <v>47</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F42" s="36">
         <v>45853</v>
       </c>
       <c r="G42" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>144</v>
-      </c>
       <c r="J42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P42" s="38" t="s">
         <v>51</v>
@@ -4980,16 +4938,16 @@
         <v>51</v>
       </c>
       <c r="R42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S42" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5000,39 +4958,39 @@
         <v>47</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F43" s="36">
         <v>45853</v>
       </c>
       <c r="G43" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="H43" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>149</v>
-      </c>
       <c r="J43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O43" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P43" s="38" t="s">
         <v>51</v>
@@ -5041,16 +4999,16 @@
         <v>51</v>
       </c>
       <c r="R43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S43" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5061,39 +5019,39 @@
         <v>47</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F44" s="36">
         <v>45853</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>154</v>
-      </c>
       <c r="J44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>51</v>
@@ -5102,16 +5060,16 @@
         <v>51</v>
       </c>
       <c r="R44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5122,13 +5080,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -5138,7 +5096,7 @@
         <v>51</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -5152,7 +5110,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5163,13 +5121,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -5193,7 +5151,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5204,13 +5162,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5220,7 +5178,7 @@
         <v>51</v>
       </c>
       <c r="K47" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
@@ -5234,7 +5192,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5245,13 +5203,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5261,7 +5219,7 @@
         <v>51</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
@@ -5275,7 +5233,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5286,13 +5244,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5302,7 +5260,7 @@
         <v>51</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
@@ -5316,7 +5274,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5327,13 +5285,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5343,7 +5301,7 @@
         <v>51</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
@@ -5357,7 +5315,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5368,13 +5326,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5384,7 +5342,7 @@
         <v>51</v>
       </c>
       <c r="K51" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -5398,7 +5356,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5409,13 +5367,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5425,7 +5383,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
@@ -5439,7 +5397,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5450,28 +5408,28 @@
         <v>47</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F53" s="36">
         <v>45853</v>
       </c>
       <c r="G53" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="H53" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="J53" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
@@ -5486,7 +5444,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5497,13 +5455,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5513,7 +5471,7 @@
         <v>51</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -5527,7 +5485,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" s="0" customFormat="1" ht="14.25" customHeight="1">
@@ -5538,13 +5496,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5554,7 +5512,7 @@
         <v>51</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L55" s="33"/>
       <c r="M55" s="38"/>
@@ -5568,7 +5526,7 @@
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
       <c r="W55" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -5582,10 +5540,10 @@
         <v>48</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5595,7 +5553,7 @@
         <v>51</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="38"/>
@@ -5609,7 +5567,7 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
       <c r="W56" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
@@ -5620,13 +5578,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5636,7 +5594,7 @@
         <v>51</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="38"/>
@@ -5650,7 +5608,7 @@
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
       <c r="W57" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -5664,25 +5622,25 @@
         <v>48</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F58" s="36">
         <v>45853</v>
       </c>
       <c r="G58" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>190</v>
-      </c>
       <c r="J58" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
@@ -5697,7 +5655,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -5711,10 +5669,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5724,7 +5682,7 @@
         <v>51</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
@@ -5738,7 +5696,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -5752,10 +5710,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5765,7 +5723,7 @@
         <v>51</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -5779,7 +5737,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -5790,13 +5748,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5806,7 +5764,7 @@
         <v>51</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -5820,7 +5778,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -9884,17 +9842,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -9904,12 +9862,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
@@ -9919,7 +9877,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -9951,22 +9909,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="44" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -9974,13 +9932,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -9988,13 +9946,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -10002,13 +9960,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -10016,13 +9974,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10030,13 +9988,13 @@
         <v>80</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" ht="14.5">
@@ -10044,27 +10002,27 @@
         <v>82</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" ht="14.5">
       <c r="A8" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" ht="14.5">
@@ -10072,41 +10030,41 @@
         <v>72</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" ht="43.5">
       <c r="A10" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>222</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>225</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -11095,15 +11053,15 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -314,6 +314,9 @@
     <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
@@ -368,16 +371,13 @@
     </r>
   </si>
   <si>
-    <t>2025-07-15T08:49:44:00Z</t>
-  </si>
-  <si>
-    <t>d48876eac9c8dd123aff63c468f98273</t>
+    <t>2025-07-24T12:34:30:00Z</t>
+  </si>
+  <si>
+    <t>fdbbe15a8cdec5ecec4cb54ea3c82d8e</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t xml:space="preserve">Campo JWT non valido</t>
@@ -392,10 +392,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>2025-07-15T11:08:48:00Z</t>
-  </si>
-  <si>
-    <t>1fadea75308188c9dd6fcac804ceeb6c</t>
+    <t>2025-07-24T12:49:36:00Z</t>
+  </si>
+  <si>
+    <t>bfbf8f84aa34069e4bab178f7d2d3663</t>
   </si>
   <si>
     <t>LAB</t>
@@ -462,6 +462,9 @@
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
+    <t xml:space="preserve">Il valore del CF viene salvato nella base dati effettuando un UPPERCASE</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Il campo è reso obligatorio nella procedura di inserimento del paziente</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
   </si>
   <si>
@@ -500,13 +506,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T08:57:52:00Z</t>
-  </si>
-  <si>
-    <t>25e8f1b7ef89323c6e76d6f4cd5f254f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.993a92a5b9e3cbc9640b5ef1a46f5c6ee5015cdf63a118150ee98ed1a83576f6.6bc4ad633a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:35:56:00Z</t>
+  </si>
+  <si>
+    <t>fee8971ff1633ff4cf927606a44084a6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.993a92a5b9e3cbc9640b5ef1a46f5c6ee5015cdf63a118150ee98ed1a83576f6.1e67d44903^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di sintassi nel CDA verificare i campi del referto</t>
@@ -522,13 +528,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T09:16:35:00Z</t>
-  </si>
-  <si>
-    <t>9e6710f9273f7fff0ff8fa1e20e84be3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.d2876a2ac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:38:11:00Z</t>
+  </si>
+  <si>
+    <t>62cc67387aa5031c4ee4c098cc640f71</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.f05705f7a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -538,13 +544,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T09:23:13:00Z</t>
-  </si>
-  <si>
-    <t>f1fd47ed48cfdfb201fde55aeb1eb680</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.6f84be05c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:40:11:00Z</t>
+  </si>
+  <si>
+    <t>7e883a81146b5f99bec3d96d75ee3587</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.56412fbe57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -641,13 +647,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T11:19:54:00Z</t>
-  </si>
-  <si>
-    <t>24f84c362303efa5071a4b96baddc739</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.f7b63bbc51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:51:17:00Z</t>
+  </si>
+  <si>
+    <t>1ac3f84cedad02b17f340dca0bc080c7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.ab4ebf2fd2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -657,13 +663,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T11:26:06:00Z</t>
-  </si>
-  <si>
-    <t>15a6144d97f22c66f680b8bf8beaf345</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.801d325d3027b464d1db4e5495ea0b5e952d9150cc84acb2d031010f87f28aa2.7b77441a02^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:52:57:00Z</t>
+  </si>
+  <si>
+    <t>61c9511ebaafab277a3b8d6779304914</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.2c67c988e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -673,13 +679,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T11:31:22:00Z</t>
-  </si>
-  <si>
-    <t>870c2cd4c689b1df7a40a59d8eab2946</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.f515bc8007^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:54:39:00Z</t>
+  </si>
+  <si>
+    <t>1aa2cc43aa76da916d89586f32beee2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.40d969e405^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -745,13 +751,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T11:00:41:00Z</t>
-  </si>
-  <si>
-    <t>3851e0be0cd086bc4f31777e1fe17525</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.7b4077ebef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:56:17:00Z</t>
+  </si>
+  <si>
+    <t>4f8edff833aed875484df5b6e149a1f1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.805e90ac2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -795,13 +801,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-15T10:15:20:00Z</t>
-  </si>
-  <si>
-    <t>6dbf3eb00630768f3fbe10c20ea4c438</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.89ee99d193^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-24T12:42:50:00Z</t>
+  </si>
+  <si>
+    <t>be2d6bee00c210cf4ccb31b52f08409c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.203fde40c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -1319,7 +1325,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1418,6 +1424,9 @@
     </xf>
     <xf fontId="2" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="19" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="3" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
@@ -3488,18 +3497,28 @@
         <v>52</v>
       </c>
       <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="M10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="1">
@@ -3510,10 +3529,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>50</v>
@@ -3529,18 +3548,28 @@
         <v>52</v>
       </c>
       <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="M11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="1">
@@ -3554,45 +3583,45 @@
         <v>48</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="36">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O12" s="38" t="s">
         <v>62</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="38" t="s">
         <v>51</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S12" s="38" t="s">
         <v>63</v>
@@ -3601,7 +3630,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="1">
@@ -3612,16 +3641,16 @@
         <v>47</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="36">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>65</v>
@@ -3630,30 +3659,30 @@
         <v>66</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O13" s="38" t="s">
         <v>62</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="38" t="s">
         <v>51</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S13" s="38" t="s">
         <v>63</v>
@@ -3662,7 +3691,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="11" hidden="1" customHeight="1">
@@ -3697,11 +3726,11 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" ht="11" hidden="1" customHeight="1">
@@ -3736,11 +3765,11 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="11" hidden="1" customHeight="1">
@@ -3775,11 +3804,11 @@
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="11" hidden="1" customHeight="1">
@@ -3803,15 +3832,15 @@
       <c r="H17" s="36"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O17" s="38" t="s">
         <v>75</v>
@@ -3823,18 +3852,18 @@
         <v>51</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="11" hidden="1" customHeight="1">
@@ -3845,7 +3874,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>77</v>
@@ -3858,15 +3887,15 @@
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>75</v>
@@ -3878,18 +3907,18 @@
         <v>51</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S18" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="11" hidden="1" customHeight="1">
@@ -3924,11 +3953,11 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="11" hidden="1" customHeight="1">
@@ -3963,11 +3992,11 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="11" hidden="1" customHeight="1">
@@ -4002,11 +4031,11 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
       <c r="U21" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="1">
@@ -4035,7 +4064,9 @@
       <c r="K22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="38"/>
+      <c r="L22" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
@@ -4047,7 +4078,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="1">
@@ -4061,10 +4092,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -4076,7 +4107,9 @@
       <c r="K23" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
@@ -4088,7 +4121,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="1">
@@ -4102,10 +4135,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -4117,7 +4150,9 @@
       <c r="K24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
@@ -4129,7 +4164,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="1">
@@ -4143,10 +4178,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -4158,7 +4193,9 @@
       <c r="K25" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
@@ -4170,7 +4207,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="1">
@@ -4184,10 +4221,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -4197,7 +4234,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -4211,7 +4248,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="1">
@@ -4225,36 +4262,36 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="36">
-        <v>45853</v>
+        <v>99</v>
+      </c>
+      <c r="F27" s="41">
+        <v>45862</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>51</v>
@@ -4263,16 +4300,16 @@
         <v>51</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="1">
@@ -4286,36 +4323,36 @@
         <v>48</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="36">
-        <v>45853</v>
+        <v>106</v>
+      </c>
+      <c r="F28" s="41">
+        <v>45862</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N28" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>51</v>
@@ -4324,16 +4361,16 @@
         <v>51</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="1">
@@ -4347,36 +4384,36 @@
         <v>48</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="36">
-        <v>45853</v>
+        <v>111</v>
+      </c>
+      <c r="F29" s="41">
+        <v>45862</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N29" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>51</v>
@@ -4385,16 +4422,16 @@
         <v>51</v>
       </c>
       <c r="R29" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="1">
@@ -4408,10 +4445,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4421,7 +4458,7 @@
         <v>51</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -4435,7 +4472,7 @@
       <c r="U30" s="39"/>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="1">
@@ -4449,10 +4486,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4462,7 +4499,7 @@
         <v>51</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
@@ -4476,7 +4513,7 @@
       <c r="U31" s="39"/>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="1">
@@ -4490,10 +4527,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4503,7 +4540,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
@@ -4517,7 +4554,7 @@
       <c r="U32" s="39"/>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="1">
@@ -4531,10 +4568,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4544,7 +4581,7 @@
         <v>51</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
@@ -4558,7 +4595,7 @@
       <c r="U33" s="39"/>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="1">
@@ -4572,10 +4609,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4585,7 +4622,7 @@
         <v>51</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
@@ -4599,7 +4636,7 @@
       <c r="U34" s="39"/>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="1">
@@ -4613,10 +4650,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4626,7 +4663,7 @@
         <v>51</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
@@ -4640,7 +4677,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="1">
@@ -4654,10 +4691,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4667,7 +4704,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -4681,7 +4718,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="1">
@@ -4695,10 +4732,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4708,7 +4745,7 @@
         <v>51</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
@@ -4722,7 +4759,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4733,13 +4770,13 @@
         <v>47</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4751,7 +4788,9 @@
       <c r="K38" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="38"/>
+      <c r="L38" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
       <c r="O38" s="38"/>
@@ -4763,7 +4802,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4774,13 +4813,13 @@
         <v>47</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4792,7 +4831,9 @@
       <c r="K39" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L39" s="38"/>
+      <c r="L39" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="38"/>
@@ -4804,7 +4845,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4815,13 +4856,13 @@
         <v>47</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4833,7 +4874,9 @@
       <c r="K40" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L40" s="38"/>
+      <c r="L40" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
       <c r="O40" s="38"/>
@@ -4845,7 +4888,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4856,13 +4899,13 @@
         <v>47</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4874,7 +4917,9 @@
       <c r="K41" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="38"/>
+      <c r="L41" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38"/>
@@ -4886,7 +4931,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4897,39 +4942,39 @@
         <v>47</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F42" s="36">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J42" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N42" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P42" s="38" t="s">
         <v>51</v>
@@ -4938,16 +4983,16 @@
         <v>51</v>
       </c>
       <c r="R42" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S42" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4958,39 +5003,39 @@
         <v>47</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F43" s="36">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J43" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N43" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O43" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P43" s="38" t="s">
         <v>51</v>
@@ -4999,16 +5044,16 @@
         <v>51</v>
       </c>
       <c r="R43" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S43" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5019,39 +5064,39 @@
         <v>47</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F44" s="36">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N44" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>51</v>
@@ -5060,16 +5105,16 @@
         <v>51</v>
       </c>
       <c r="R44" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5080,13 +5125,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -5096,7 +5141,7 @@
         <v>51</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -5110,7 +5155,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5121,13 +5166,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -5151,7 +5196,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5162,13 +5207,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5178,7 +5223,7 @@
         <v>51</v>
       </c>
       <c r="K47" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
@@ -5192,7 +5237,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5203,13 +5248,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5219,7 +5264,7 @@
         <v>51</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
@@ -5233,7 +5278,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5244,13 +5289,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5260,7 +5305,7 @@
         <v>51</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
@@ -5274,7 +5319,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5285,13 +5330,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5301,7 +5346,7 @@
         <v>51</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
@@ -5315,7 +5360,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5326,13 +5371,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5342,7 +5387,7 @@
         <v>51</v>
       </c>
       <c r="K51" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -5356,7 +5401,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5367,13 +5412,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5383,7 +5428,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
@@ -5397,7 +5442,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5408,28 +5453,28 @@
         <v>47</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F53" s="36">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J53" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
@@ -5444,7 +5489,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5455,13 +5500,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5471,7 +5516,7 @@
         <v>51</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -5485,7 +5530,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" s="0" customFormat="1" ht="14.25" customHeight="1">
@@ -5496,13 +5541,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5512,7 +5557,7 @@
         <v>51</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L55" s="33"/>
       <c r="M55" s="38"/>
@@ -5526,7 +5571,7 @@
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
       <c r="W55" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -5540,10 +5585,10 @@
         <v>48</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5553,7 +5598,7 @@
         <v>51</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="38"/>
@@ -5567,7 +5612,7 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
       <c r="W56" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
@@ -5578,13 +5623,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5594,7 +5639,7 @@
         <v>51</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="38"/>
@@ -5608,7 +5653,7 @@
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
       <c r="W57" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -5622,25 +5667,25 @@
         <v>48</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="36">
-        <v>45853</v>
+        <v>187</v>
+      </c>
+      <c r="F58" s="41">
+        <v>45862</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J58" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
@@ -5655,7 +5700,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -5669,10 +5714,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5682,7 +5727,7 @@
         <v>51</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
@@ -5696,7 +5741,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -5710,10 +5755,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5723,7 +5768,7 @@
         <v>51</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -5737,7 +5782,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -5748,13 +5793,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5764,7 +5809,7 @@
         <v>51</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -5778,7 +5823,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -9842,17 +9887,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -9862,12 +9907,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -9877,7 +9922,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -9908,170 +9953,170 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>202</v>
       </c>
+      <c r="F1" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>205</v>
       </c>
+      <c r="C2" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>207</v>
+      <c r="B3" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>209</v>
+      <c r="B4" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>211</v>
+      <c r="B5" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>213</v>
+      <c r="B6" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" ht="14.5">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>215</v>
+      <c r="B7" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" ht="14.5">
-      <c r="A8" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>217</v>
+      <c r="A8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" ht="14.5">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>219</v>
+      <c r="B9" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" ht="43.5">
-      <c r="A10" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>222</v>
       </c>
+      <c r="B10" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>225</v>
       </c>
+      <c r="B11" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="50"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="50"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
@@ -11053,15 +11098,15 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -314,9 +314,6 @@
     <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campo JWT non valido</t>
   </si>
   <si>
@@ -462,17 +462,11 @@
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
-    <t xml:space="preserve">Il valore del CF viene salvato nella base dati effettuando un UPPERCASE</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il campo è reso obligatorio nella procedura di inserimento del paziente</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
@@ -3497,28 +3491,18 @@
         <v>52</v>
       </c>
       <c r="L10" s="38"/>
-      <c r="M10" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>51</v>
-      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="1">
@@ -3529,10 +3513,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>50</v>
@@ -3548,28 +3532,18 @@
         <v>52</v>
       </c>
       <c r="L11" s="38"/>
-      <c r="M11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="38"/>
-      <c r="P11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="1">
@@ -3583,45 +3557,45 @@
         <v>48</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="36">
         <v>45862</v>
       </c>
       <c r="G12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="I12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="J12" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O12" s="38" t="s">
         <v>62</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="38" t="s">
         <v>51</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S12" s="38" t="s">
         <v>63</v>
@@ -3630,7 +3604,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="1">
@@ -3641,13 +3615,13 @@
         <v>47</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="36">
         <v>45862</v>
@@ -3659,30 +3633,30 @@
         <v>66</v>
       </c>
       <c r="I13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O13" s="38" t="s">
         <v>62</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="38" t="s">
         <v>51</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S13" s="38" t="s">
         <v>63</v>
@@ -3691,7 +3665,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="11" hidden="1" customHeight="1">
@@ -3726,11 +3700,11 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" ht="11" hidden="1" customHeight="1">
@@ -3765,11 +3739,11 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="11" hidden="1" customHeight="1">
@@ -3804,11 +3778,11 @@
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="11" hidden="1" customHeight="1">
@@ -3832,15 +3806,15 @@
       <c r="H17" s="36"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O17" s="38" t="s">
         <v>75</v>
@@ -3852,18 +3826,18 @@
         <v>51</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="11" hidden="1" customHeight="1">
@@ -3874,7 +3848,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>77</v>
@@ -3887,15 +3861,15 @@
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>75</v>
@@ -3907,18 +3881,18 @@
         <v>51</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S18" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="11" hidden="1" customHeight="1">
@@ -3953,11 +3927,11 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="11" hidden="1" customHeight="1">
@@ -3992,11 +3966,11 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="11" hidden="1" customHeight="1">
@@ -4031,11 +4005,11 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
       <c r="U21" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="1">
@@ -4064,9 +4038,7 @@
       <c r="K22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>87</v>
-      </c>
+      <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
@@ -4078,7 +4050,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="1">
@@ -4092,10 +4064,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>89</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -4107,9 +4079,7 @@
       <c r="K23" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
@@ -4121,7 +4091,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="1">
@@ -4135,10 +4105,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -4150,9 +4120,7 @@
       <c r="K24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
@@ -4164,7 +4132,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="1">
@@ -4178,10 +4146,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -4193,9 +4161,7 @@
       <c r="K25" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
@@ -4207,7 +4173,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="1">
@@ -4221,10 +4187,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -4234,7 +4200,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -4248,7 +4214,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="1">
@@ -4262,36 +4228,36 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="41">
         <v>45862</v>
       </c>
       <c r="G27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="J27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>51</v>
@@ -4300,16 +4266,16 @@
         <v>51</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="1">
@@ -4323,36 +4289,36 @@
         <v>48</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="41">
         <v>45862</v>
       </c>
       <c r="G28" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="J28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>51</v>
@@ -4361,16 +4327,16 @@
         <v>51</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="1">
@@ -4384,36 +4350,36 @@
         <v>48</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="41">
         <v>45862</v>
       </c>
       <c r="G29" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="J29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>51</v>
@@ -4422,16 +4388,16 @@
         <v>51</v>
       </c>
       <c r="R29" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="1">
@@ -4445,10 +4411,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4458,7 +4424,7 @@
         <v>51</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -4472,7 +4438,7 @@
       <c r="U30" s="39"/>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="1">
@@ -4486,10 +4452,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4499,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
@@ -4513,7 +4479,7 @@
       <c r="U31" s="39"/>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="1">
@@ -4527,10 +4493,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4540,7 +4506,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
@@ -4554,7 +4520,7 @@
       <c r="U32" s="39"/>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="1">
@@ -4568,10 +4534,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4581,7 +4547,7 @@
         <v>51</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
@@ -4595,7 +4561,7 @@
       <c r="U33" s="39"/>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="1">
@@ -4609,10 +4575,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4622,7 +4588,7 @@
         <v>51</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
@@ -4636,7 +4602,7 @@
       <c r="U34" s="39"/>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="1">
@@ -4650,10 +4616,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4663,7 +4629,7 @@
         <v>51</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
@@ -4677,7 +4643,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="1">
@@ -4691,10 +4657,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4704,7 +4670,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -4718,7 +4684,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="1">
@@ -4732,10 +4698,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4745,7 +4711,7 @@
         <v>51</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
@@ -4759,7 +4725,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4770,13 +4736,13 @@
         <v>47</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4788,9 +4754,7 @@
       <c r="K38" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="38" t="s">
-        <v>87</v>
-      </c>
+      <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
       <c r="O38" s="38"/>
@@ -4802,7 +4766,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4813,13 +4777,13 @@
         <v>47</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4831,9 +4795,7 @@
       <c r="K39" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L39" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="38"/>
@@ -4845,7 +4807,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4856,13 +4818,13 @@
         <v>47</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4874,9 +4836,7 @@
       <c r="K40" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L40" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
       <c r="O40" s="38"/>
@@ -4888,7 +4848,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4899,13 +4859,13 @@
         <v>47</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4917,9 +4877,7 @@
       <c r="K41" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38"/>
@@ -4931,7 +4889,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" s="0" customFormat="1" ht="11" customHeight="1">
@@ -4942,39 +4900,39 @@
         <v>47</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F42" s="36">
         <v>45862</v>
       </c>
       <c r="G42" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>144</v>
-      </c>
       <c r="J42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P42" s="38" t="s">
         <v>51</v>
@@ -4983,16 +4941,16 @@
         <v>51</v>
       </c>
       <c r="R42" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S42" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5003,39 +4961,39 @@
         <v>47</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F43" s="36">
         <v>45862</v>
       </c>
       <c r="G43" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="H43" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>149</v>
-      </c>
       <c r="J43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O43" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P43" s="38" t="s">
         <v>51</v>
@@ -5044,16 +5002,16 @@
         <v>51</v>
       </c>
       <c r="R43" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S43" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5064,39 +5022,39 @@
         <v>47</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F44" s="36">
         <v>45862</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>154</v>
-      </c>
       <c r="J44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>51</v>
@@ -5105,16 +5063,16 @@
         <v>51</v>
       </c>
       <c r="R44" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5125,13 +5083,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -5141,7 +5099,7 @@
         <v>51</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -5155,7 +5113,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5166,13 +5124,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -5196,7 +5154,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5207,13 +5165,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5223,7 +5181,7 @@
         <v>51</v>
       </c>
       <c r="K47" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
@@ -5237,7 +5195,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5248,13 +5206,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5264,7 +5222,7 @@
         <v>51</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
@@ -5278,7 +5236,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5289,13 +5247,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5305,7 +5263,7 @@
         <v>51</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
@@ -5319,7 +5277,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5330,13 +5288,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5346,7 +5304,7 @@
         <v>51</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
@@ -5360,7 +5318,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5371,13 +5329,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5387,7 +5345,7 @@
         <v>51</v>
       </c>
       <c r="K51" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -5401,7 +5359,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5412,13 +5370,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5428,7 +5386,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
@@ -5442,7 +5400,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5453,28 +5411,28 @@
         <v>47</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F53" s="36">
         <v>45862</v>
       </c>
       <c r="G53" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="H53" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="J53" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
@@ -5489,7 +5447,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5500,13 +5458,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5516,7 +5474,7 @@
         <v>51</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -5530,7 +5488,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" s="0" customFormat="1" ht="14.25" customHeight="1">
@@ -5541,13 +5499,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5557,7 +5515,7 @@
         <v>51</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L55" s="33"/>
       <c r="M55" s="38"/>
@@ -5571,7 +5529,7 @@
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
       <c r="W55" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -5585,10 +5543,10 @@
         <v>48</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5598,7 +5556,7 @@
         <v>51</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="38"/>
@@ -5612,7 +5570,7 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
       <c r="W56" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
@@ -5623,13 +5581,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5639,7 +5597,7 @@
         <v>51</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="38"/>
@@ -5653,7 +5611,7 @@
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
       <c r="W57" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -5667,25 +5625,25 @@
         <v>48</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F58" s="41">
         <v>45862</v>
       </c>
       <c r="G58" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>190</v>
-      </c>
       <c r="J58" s="38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
@@ -5700,7 +5658,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -5714,10 +5672,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5727,7 +5685,7 @@
         <v>51</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
@@ -5741,7 +5699,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -5755,10 +5713,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5768,7 +5726,7 @@
         <v>51</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -5782,7 +5740,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -5793,13 +5751,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5809,7 +5767,7 @@
         <v>51</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -5823,7 +5781,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -9887,17 +9845,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -9907,12 +9865,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
@@ -9922,7 +9880,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -9954,22 +9912,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="G1" s="45" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -9977,13 +9935,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -9991,13 +9949,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -10005,13 +9963,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -10019,13 +9977,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10033,13 +9991,13 @@
         <v>80</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" ht="14.5">
@@ -10047,27 +10005,27 @@
         <v>82</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" ht="14.5">
       <c r="A8" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" ht="14.5">
@@ -10075,41 +10033,41 @@
         <v>72</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" ht="43.5">
       <c r="A10" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>222</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>225</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -11098,15 +11056,15 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -368,10 +368,10 @@
     </r>
   </si>
   <si>
-    <t>2025-07-24T12:34:30:00Z</t>
-  </si>
-  <si>
-    <t>fdbbe15a8cdec5ecec4cb54ea3c82d8e</t>
+    <t>2025-07-31T13:55:04:00Z</t>
+  </si>
+  <si>
+    <t>9c0daa863d343051bedff027a9c03b87</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -392,10 +392,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>2025-07-24T12:49:36:00Z</t>
-  </si>
-  <si>
-    <t>bfbf8f84aa34069e4bab178f7d2d3663</t>
+    <t>2025-07-31T13:00:42:00Z</t>
+  </si>
+  <si>
+    <t>767a7371026b016c9451364b056d0125</t>
   </si>
   <si>
     <t>LAB</t>
@@ -500,13 +500,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:35:56:00Z</t>
-  </si>
-  <si>
-    <t>fee8971ff1633ff4cf927606a44084a6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.993a92a5b9e3cbc9640b5ef1a46f5c6ee5015cdf63a118150ee98ed1a83576f6.1e67d44903^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T13:56:41:00Z</t>
+  </si>
+  <si>
+    <t>2d9ea2d3985c4cf244aef26515bdc16a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.993a92a5b9e3cbc9640b5ef1a46f5c6ee5015cdf63a118150ee98ed1a83576f6.c526c8baed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di sintassi nel CDA verificare i campi del referto</t>
@@ -522,13 +522,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:38:11:00Z</t>
-  </si>
-  <si>
-    <t>62cc67387aa5031c4ee4c098cc640f71</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.f05705f7a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T13:58:31:00Z</t>
+  </si>
+  <si>
+    <t>61af586a3122e1b72f1c19523497de81</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.acf5a1ec65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -538,13 +538,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:40:11:00Z</t>
-  </si>
-  <si>
-    <t>7e883a81146b5f99bec3d96d75ee3587</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.56412fbe57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T14:01:52:00Z</t>
+  </si>
+  <si>
+    <t>125c7a894f7252a17973e0324c310ee4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.74523cb43d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -641,13 +641,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:51:17:00Z</t>
-  </si>
-  <si>
-    <t>1ac3f84cedad02b17f340dca0bc080c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.ab4ebf2fd2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T13:03:14:00Z</t>
+  </si>
+  <si>
+    <t>39a61b0424b8c099178faadd0c931e82</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.e9d6ed1021^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -657,13 +657,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:52:57:00Z</t>
-  </si>
-  <si>
-    <t>61c9511ebaafab277a3b8d6779304914</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.2c67c988e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T13:06:12:00Z</t>
+  </si>
+  <si>
+    <t>69cb38c67bdeb9a0be6e4526446fb5bc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.649f955c5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -673,13 +673,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:54:39:00Z</t>
-  </si>
-  <si>
-    <t>1aa2cc43aa76da916d89586f32beee2c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.40d969e405^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T13:10:50:00Z</t>
+  </si>
+  <si>
+    <t>3f2d152319d9695c30f08d5e965aa65c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.15a644568c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -745,13 +745,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:56:17:00Z</t>
-  </si>
-  <si>
-    <t>4f8edff833aed875484df5b6e149a1f1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.805e90ac2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T13:12:54:00Z</t>
+  </si>
+  <si>
+    <t>3e2ba8a590d82a7dc8431077b23774c2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.51e18e93c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -795,13 +795,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-24T12:42:50:00Z</t>
-  </si>
-  <si>
-    <t>be2d6bee00c210cf4ccb31b52f08409c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.203fde40c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-31T14:03:57:00Z</t>
+  </si>
+  <si>
+    <t>e31c120973f5017de93cd74078780855</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.8edf582f19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -3187,7 +3187,9 @@
     <col customWidth="1" min="3" max="3" width="20.1796875"/>
     <col customWidth="1" min="4" max="4" width="63.81640625"/>
     <col customWidth="1" min="5" max="5" width="104.81640625"/>
-    <col customWidth="1" min="6" max="9" width="33.1796875"/>
+    <col customWidth="1" min="6" max="7" width="33.1796875"/>
+    <col customWidth="1" min="8" max="8" width="36.28125"/>
+    <col customWidth="1" min="9" max="9" width="33.1796875"/>
     <col customWidth="1" min="10" max="10" width="27.1796875"/>
     <col customWidth="1" min="11" max="18" width="36.453125"/>
     <col customWidth="1" min="19" max="19" width="27.1796875"/>
@@ -3563,7 +3565,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="36">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>58</v>
@@ -3624,7 +3626,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="36">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>65</v>
@@ -4234,7 +4236,7 @@
         <v>97</v>
       </c>
       <c r="F27" s="41">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>98</v>
@@ -4295,7 +4297,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="41">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>105</v>
@@ -4356,7 +4358,7 @@
         <v>109</v>
       </c>
       <c r="F29" s="41">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>110</v>
@@ -4909,7 +4911,7 @@
         <v>139</v>
       </c>
       <c r="F42" s="36">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>140</v>
@@ -4970,7 +4972,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="36">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>145</v>
@@ -5031,7 +5033,7 @@
         <v>149</v>
       </c>
       <c r="F44" s="36">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>150</v>
@@ -5420,7 +5422,7 @@
         <v>170</v>
       </c>
       <c r="F53" s="36">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>171</v>
@@ -5631,7 +5633,7 @@
         <v>185</v>
       </c>
       <c r="F58" s="41">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>186</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -368,10 +368,10 @@
     </r>
   </si>
   <si>
-    <t>2025-07-31T13:55:04:00Z</t>
-  </si>
-  <si>
-    <t>9c0daa863d343051bedff027a9c03b87</t>
+    <t>2025-08-07T06:57:39:00Z</t>
+  </si>
+  <si>
+    <t>df0f167899052a51981e1979c5adfc03</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -392,10 +392,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>2025-07-31T13:00:42:00Z</t>
-  </si>
-  <si>
-    <t>767a7371026b016c9451364b056d0125</t>
+    <t>2025-08-07T07:08:03:00Z</t>
+  </si>
+  <si>
+    <t>863390125b531bdb535c8d8f6301096c</t>
   </si>
   <si>
     <t>LAB</t>
@@ -500,13 +500,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T13:56:41:00Z</t>
-  </si>
-  <si>
-    <t>2d9ea2d3985c4cf244aef26515bdc16a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.993a92a5b9e3cbc9640b5ef1a46f5c6ee5015cdf63a118150ee98ed1a83576f6.c526c8baed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T06:59:33:00Z</t>
+  </si>
+  <si>
+    <t>d3eedc5c9f981676f2633c1f029b8a7e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.993a92a5b9e3cbc9640b5ef1a46f5c6ee5015cdf63a118150ee98ed1a83576f6.48fa7fe580^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di sintassi nel CDA verificare i campi del referto</t>
@@ -522,13 +522,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T13:58:31:00Z</t>
-  </si>
-  <si>
-    <t>61af586a3122e1b72f1c19523497de81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.acf5a1ec65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:01:07:00Z</t>
+  </si>
+  <si>
+    <t>fe6e33195d23eb37a37bcb0a37f38353</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.b008ed4035^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -538,13 +538,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T14:01:52:00Z</t>
-  </si>
-  <si>
-    <t>125c7a894f7252a17973e0324c310ee4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.74523cb43d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:02:40:00Z</t>
+  </si>
+  <si>
+    <t>bbc493e9ba04d8587355bb43545aef19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.c8e709a21b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -641,13 +641,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T13:03:14:00Z</t>
-  </si>
-  <si>
-    <t>39a61b0424b8c099178faadd0c931e82</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.e9d6ed1021^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:09:38:00Z</t>
+  </si>
+  <si>
+    <t>44c32de006f087bfa3c7b72d4e3143f2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.4999aa6267^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -657,13 +657,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T13:06:12:00Z</t>
-  </si>
-  <si>
-    <t>69cb38c67bdeb9a0be6e4526446fb5bc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.649f955c5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:10:53:00Z</t>
+  </si>
+  <si>
+    <t>788870b04eacd5ce94adc34279773024</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.369912e732^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -673,13 +673,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T13:10:50:00Z</t>
-  </si>
-  <si>
-    <t>3f2d152319d9695c30f08d5e965aa65c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.15a644568c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:12:09:00Z</t>
+  </si>
+  <si>
+    <t>61c2e741290cf86ce2c4a0536e717e2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9ade7d4d0868290461e4a7679a0d7e5b4ec9f960ac208326e529458a14595dbe.51a3b735ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -745,13 +745,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T13:12:54:00Z</t>
-  </si>
-  <si>
-    <t>3e2ba8a590d82a7dc8431077b23774c2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.51e18e93c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:13:36:00Z</t>
+  </si>
+  <si>
+    <t>7d72321e94a0f14f763842828faeb3dc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.0d03254e58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -795,13 +795,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-07-31T14:03:57:00Z</t>
-  </si>
-  <si>
-    <t>e31c120973f5017de93cd74078780855</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.8edf582f19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T07:04:42:00Z</t>
+  </si>
+  <si>
+    <t>f018c65904676c62b1c2dd6855877245</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.4717be86b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -3186,7 +3186,7 @@
     <col customWidth="1" min="2" max="2" width="46.81640625"/>
     <col customWidth="1" min="3" max="3" width="20.1796875"/>
     <col customWidth="1" min="4" max="4" width="63.81640625"/>
-    <col customWidth="1" min="5" max="5" width="104.81640625"/>
+    <col customWidth="1" min="5" max="5" width="67.140625"/>
     <col customWidth="1" min="6" max="7" width="33.1796875"/>
     <col customWidth="1" min="8" max="8" width="36.28125"/>
     <col customWidth="1" min="9" max="9" width="33.1796875"/>
@@ -3565,7 +3565,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="36">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>58</v>
@@ -3626,7 +3626,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="36">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>65</v>
@@ -4236,7 +4236,7 @@
         <v>97</v>
       </c>
       <c r="F27" s="41">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>98</v>
@@ -4297,7 +4297,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="41">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>105</v>
@@ -4358,7 +4358,7 @@
         <v>109</v>
       </c>
       <c r="F29" s="41">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>110</v>
@@ -4911,7 +4911,7 @@
         <v>139</v>
       </c>
       <c r="F42" s="36">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>140</v>
@@ -4972,7 +4972,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="36">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>145</v>
@@ -5033,7 +5033,7 @@
         <v>149</v>
       </c>
       <c r="F44" s="36">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>150</v>
@@ -5422,7 +5422,7 @@
         <v>170</v>
       </c>
       <c r="F53" s="36">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>171</v>
@@ -5633,7 +5633,7 @@
         <v>185</v>
       </c>
       <c r="F58" s="41">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>186</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -745,13 +745,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-07T07:13:36:00Z</t>
-  </si>
-  <si>
-    <t>7d72321e94a0f14f763842828faeb3dc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.0d03254e58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-26T08:54:22:00Z</t>
+  </si>
+  <si>
+    <t>b12a33c9fe173515abfdfb8223b2f747</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.3d6013f551^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -795,13 +795,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-07T07:04:42:00Z</t>
-  </si>
-  <si>
-    <t>f018c65904676c62b1c2dd6855877245</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.4717be86b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-26T08:57:54:00Z</t>
+  </si>
+  <si>
+    <t>40764cb737f6dd3adba2c378649c2a7e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.42a9e275ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -5422,7 +5422,7 @@
         <v>170</v>
       </c>
       <c r="F53" s="36">
-        <v>45876</v>
+        <v>45895</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>171</v>
@@ -5633,7 +5633,7 @@
         <v>185</v>
       </c>
       <c r="F58" s="41">
-        <v>45876</v>
+        <v>45895</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>186</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -745,13 +745,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-26T08:54:22:00Z</t>
-  </si>
-  <si>
-    <t>b12a33c9fe173515abfdfb8223b2f747</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.3d6013f551^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-27T08:15:45:00Z</t>
+  </si>
+  <si>
+    <t>32664e6a3b0a75a047d98d2239b67932</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.96c061303b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -795,13 +795,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-26T08:57:54:00Z</t>
-  </si>
-  <si>
-    <t>40764cb737f6dd3adba2c378649c2a7e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.42a9e275ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-27T08:13:06:00Z</t>
+  </si>
+  <si>
+    <t>13bb96e6ac69eee4e5991972646fe636</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.e4795b1398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -5422,7 +5422,7 @@
         <v>170</v>
       </c>
       <c r="F53" s="36">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>171</v>
@@ -5633,7 +5633,7 @@
         <v>185</v>
       </c>
       <c r="F58" s="41">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>186</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -745,13 +745,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-27T08:15:45:00Z</t>
-  </si>
-  <si>
-    <t>32664e6a3b0a75a047d98d2239b67932</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.96c061303b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-09-03T07:12:12:00Z</t>
+  </si>
+  <si>
+    <t>6896c74cab395a45f4b620a535a4c5fa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ef9b9c4d23e560db876fa7c5866c0bf73ac57069a2bd3e8d00e77c2ccaf1a515.e39a698380^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -5422,7 +5422,7 @@
         <v>170</v>
       </c>
       <c r="F53" s="36">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>171</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.c8e709a21b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico nel CDA verificare i campi del referto</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -4381,7 +4384,7 @@
         <v>61</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>51</v>
@@ -4413,10 +4416,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4454,10 +4457,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4495,10 +4498,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4536,10 +4539,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4577,10 +4580,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4618,10 +4621,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4659,10 +4662,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4672,7 +4675,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -4700,10 +4703,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4713,7 +4716,7 @@
         <v>51</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
@@ -4741,10 +4744,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4782,10 +4785,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4823,10 +4826,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4864,10 +4867,10 @@
         <v>54</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4905,22 +4908,22 @@
         <v>54</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" s="36">
         <v>45876</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>61</v>
@@ -4966,22 +4969,22 @@
         <v>54</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F43" s="36">
         <v>45876</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J43" s="38" t="s">
         <v>61</v>
@@ -5027,22 +5030,22 @@
         <v>54</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F44" s="36">
         <v>45876</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J44" s="38" t="s">
         <v>61</v>
@@ -5056,7 +5059,7 @@
         <v>61</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>51</v>
@@ -5088,10 +5091,10 @@
         <v>54</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -5101,7 +5104,7 @@
         <v>51</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -5129,10 +5132,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -5170,10 +5173,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5211,10 +5214,10 @@
         <v>54</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5252,10 +5255,10 @@
         <v>54</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5293,10 +5296,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5334,10 +5337,10 @@
         <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5347,7 +5350,7 @@
         <v>51</v>
       </c>
       <c r="K51" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -5375,10 +5378,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5388,7 +5391,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
@@ -5416,22 +5419,22 @@
         <v>54</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F53" s="36">
         <v>45903</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>61</v>
@@ -5449,7 +5452,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5463,10 +5466,10 @@
         <v>54</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5490,7 +5493,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" s="0" customFormat="1" ht="14.25" customHeight="1">
@@ -5504,10 +5507,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5545,10 +5548,10 @@
         <v>48</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5558,7 +5561,7 @@
         <v>51</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="38"/>
@@ -5586,10 +5589,10 @@
         <v>54</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5599,7 +5602,7 @@
         <v>51</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="38"/>
@@ -5627,22 +5630,22 @@
         <v>48</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F58" s="41">
         <v>45896</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>61</v>
@@ -5660,7 +5663,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -5674,10 +5677,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5701,7 +5704,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -5715,10 +5718,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5728,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -5756,10 +5759,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5769,7 +5772,7 @@
         <v>51</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -9847,7 +9850,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -9857,7 +9860,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
@@ -9867,12 +9870,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -9882,7 +9885,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -9914,22 +9917,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -9937,13 +9940,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -9951,13 +9954,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -9965,13 +9968,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -9979,13 +9982,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -9993,13 +9996,13 @@
         <v>80</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" ht="14.5">
@@ -10007,13 +10010,13 @@
         <v>82</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" ht="14.5">
@@ -10021,13 +10024,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" ht="14.5">
@@ -10035,41 +10038,41 @@
         <v>72</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" ht="43.5">
       <c r="A10" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -11058,7 +11061,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>61</v>
@@ -11066,7 +11069,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.82a1bcb3ceea777f60fd153f6ec968824d48cbdd877242dfde81a97ed7d9e51f.c8e709a21b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore semantico nel CDA verificare i campi del referto</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -4384,7 +4381,7 @@
         <v>61</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>51</v>
@@ -4416,10 +4413,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>115</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4457,10 +4454,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4498,10 +4495,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>119</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4539,10 +4536,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>120</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>121</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4580,10 +4577,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>122</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>123</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4621,10 +4618,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>125</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4662,10 +4659,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>126</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>127</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4675,7 +4672,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -4703,10 +4700,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>129</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>130</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4716,7 +4713,7 @@
         <v>51</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
@@ -4744,10 +4741,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4785,10 +4782,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>134</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4826,10 +4823,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>135</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>136</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4867,10 +4864,10 @@
         <v>54</v>
       </c>
       <c r="D41" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>138</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4908,22 +4905,22 @@
         <v>54</v>
       </c>
       <c r="D42" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>139</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>140</v>
       </c>
       <c r="F42" s="36">
         <v>45876</v>
       </c>
       <c r="G42" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="I42" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>143</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>61</v>
@@ -4969,22 +4966,22 @@
         <v>54</v>
       </c>
       <c r="D43" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>145</v>
       </c>
       <c r="F43" s="36">
         <v>45876</v>
       </c>
       <c r="G43" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="I43" s="37" t="s">
         <v>147</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>148</v>
       </c>
       <c r="J43" s="38" t="s">
         <v>61</v>
@@ -5030,22 +5027,22 @@
         <v>54</v>
       </c>
       <c r="D44" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>150</v>
       </c>
       <c r="F44" s="36">
         <v>45876</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="I44" s="37" t="s">
         <v>152</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>153</v>
       </c>
       <c r="J44" s="38" t="s">
         <v>61</v>
@@ -5059,7 +5056,7 @@
         <v>61</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>51</v>
@@ -5091,10 +5088,10 @@
         <v>54</v>
       </c>
       <c r="D45" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>155</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -5104,7 +5101,7 @@
         <v>51</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -5132,10 +5129,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>157</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -5173,10 +5170,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>158</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>159</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5214,10 +5211,10 @@
         <v>54</v>
       </c>
       <c r="D48" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>160</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>161</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5255,10 +5252,10 @@
         <v>54</v>
       </c>
       <c r="D49" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>162</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>163</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5296,10 +5293,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>165</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5337,10 +5334,10 @@
         <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>166</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>167</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5350,7 +5347,7 @@
         <v>51</v>
       </c>
       <c r="K51" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -5378,10 +5375,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5391,7 +5388,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
@@ -5419,22 +5416,22 @@
         <v>54</v>
       </c>
       <c r="D53" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="35" t="s">
         <v>170</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>171</v>
       </c>
       <c r="F53" s="36">
         <v>45903</v>
       </c>
       <c r="G53" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="I53" s="37" t="s">
         <v>173</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>174</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>61</v>
@@ -5452,7 +5449,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" s="0" customFormat="1" ht="11" customHeight="1">
@@ -5466,10 +5463,10 @@
         <v>54</v>
       </c>
       <c r="D54" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>176</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>177</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5493,7 +5490,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" s="0" customFormat="1" ht="14.25" customHeight="1">
@@ -5507,10 +5504,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>179</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5548,10 +5545,10 @@
         <v>48</v>
       </c>
       <c r="D56" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>181</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5561,7 +5558,7 @@
         <v>51</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="38"/>
@@ -5589,10 +5586,10 @@
         <v>54</v>
       </c>
       <c r="D57" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5602,7 +5599,7 @@
         <v>51</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="38"/>
@@ -5630,22 +5627,22 @@
         <v>48</v>
       </c>
       <c r="D58" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>185</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>186</v>
       </c>
       <c r="F58" s="41">
         <v>45896</v>
       </c>
       <c r="G58" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="I58" s="37" t="s">
         <v>188</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>189</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>61</v>
@@ -5663,7 +5660,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -5677,10 +5674,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="35" t="s">
         <v>190</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5704,7 +5701,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -5718,10 +5715,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>192</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>193</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5731,7 +5728,7 @@
         <v>51</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -5759,10 +5756,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5772,7 +5769,7 @@
         <v>51</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -9850,7 +9847,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -9860,7 +9857,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -9870,12 +9867,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
@@ -9885,7 +9882,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -9917,22 +9914,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>202</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -9940,13 +9937,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>205</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -9954,13 +9951,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>207</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -9968,13 +9965,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -9982,13 +9979,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>211</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -9996,13 +9993,13 @@
         <v>80</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>213</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" ht="14.5">
@@ -10010,13 +10007,13 @@
         <v>82</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>215</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" ht="14.5">
@@ -10024,13 +10021,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>217</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="9" ht="14.5">
@@ -10038,41 +10035,41 @@
         <v>72</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>219</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="10" ht="43.5">
       <c r="A10" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>222</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="D11" s="49" t="s">
         <v>225</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -11061,7 +11058,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>61</v>
@@ -11069,7 +11066,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>
